--- a/JupyterNotebooks/AveragedIntensites/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossF-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +952,7 @@
         <v>0.9954199582472592</v>
       </c>
       <c r="D13">
-        <v>0.9933137835985733</v>
+        <v>0.9933137835985731</v>
       </c>
       <c r="E13">
         <v>0.9942538958394512</v>
@@ -970,13 +970,13 @@
         <v>0.9956971022920688</v>
       </c>
       <c r="J13">
-        <v>0.9933137835985733</v>
+        <v>0.9933137835985731</v>
       </c>
       <c r="K13">
         <v>0.9937838397190122</v>
       </c>
       <c r="L13">
-        <v>0.9946018989831358</v>
+        <v>0.9946018989831356</v>
       </c>
       <c r="M13">
         <v>0.9942976182096245</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.00159684420181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9834174039073463</v>
+      </c>
+      <c r="D16">
+        <v>0.9924703951312377</v>
+      </c>
+      <c r="E16">
+        <v>1.026900555561042</v>
+      </c>
+      <c r="F16">
+        <v>0.9834174039073463</v>
+      </c>
+      <c r="G16">
+        <v>0.9175800386854445</v>
+      </c>
+      <c r="H16">
+        <v>1.201031381252061</v>
+      </c>
+      <c r="I16">
+        <v>1.007901537378366</v>
+      </c>
+      <c r="J16">
+        <v>0.9924703951312377</v>
+      </c>
+      <c r="K16">
+        <v>1.00968547534614</v>
+      </c>
+      <c r="L16">
+        <v>0.996551439626743</v>
+      </c>
+      <c r="M16">
+        <v>1.021550218652583</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9834174039073463</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW20.xlsx
@@ -955,7 +955,7 @@
         <v>0.9954199582472592</v>
       </c>
       <c r="D13">
-        <v>0.9933137835985731</v>
+        <v>0.9933137835985733</v>
       </c>
       <c r="E13">
         <v>0.9942538958394512</v>
@@ -973,13 +973,13 @@
         <v>0.9956971022920688</v>
       </c>
       <c r="J13">
-        <v>0.9933137835985731</v>
+        <v>0.9933137835985733</v>
       </c>
       <c r="K13">
         <v>0.9937838397190122</v>
       </c>
       <c r="L13">
-        <v>0.9946018989831356</v>
+        <v>0.9946018989831358</v>
       </c>
       <c r="M13">
         <v>0.9942976182096245</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.408632</v>
+        <v>0.9834174039073463</v>
       </c>
       <c r="D10">
-        <v>1.190688000000001</v>
+        <v>0.9924703951312377</v>
       </c>
       <c r="E10">
-        <v>0.7513119999999998</v>
+        <v>1.026900555561042</v>
       </c>
       <c r="F10">
-        <v>1.408632</v>
+        <v>0.9834174039073463</v>
       </c>
       <c r="G10">
-        <v>1.1114</v>
+        <v>0.9175800386854445</v>
       </c>
       <c r="H10">
-        <v>0.4694839999999998</v>
+        <v>1.201031381252061</v>
       </c>
       <c r="I10">
-        <v>0.8944919999999995</v>
+        <v>1.007901537378366</v>
       </c>
       <c r="J10">
-        <v>1.190688000000001</v>
+        <v>0.9924703951312377</v>
       </c>
       <c r="K10">
-        <v>0.9710000000000003</v>
+        <v>1.00968547534614</v>
       </c>
       <c r="L10">
-        <v>1.189816</v>
+        <v>0.996551439626743</v>
       </c>
       <c r="M10">
-        <v>0.9710013333333333</v>
+        <v>1.021550218652583</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.97</v>
+        <v>0.9401723248035061</v>
       </c>
       <c r="D11">
-        <v>0.21</v>
+        <v>1.889623144686522</v>
       </c>
       <c r="E11">
-        <v>0.8426125000000002</v>
+        <v>0.7018675165841424</v>
       </c>
       <c r="F11">
-        <v>1.97</v>
+        <v>0.9401723248035061</v>
       </c>
       <c r="G11">
-        <v>0.64</v>
+        <v>1.4660457232924</v>
       </c>
       <c r="H11">
-        <v>0.66</v>
+        <v>0.328386906376964</v>
       </c>
       <c r="I11">
-        <v>1.093187500000002</v>
+        <v>0.7650490148542836</v>
       </c>
       <c r="J11">
-        <v>0.21</v>
+        <v>1.889623144686522</v>
       </c>
       <c r="K11">
-        <v>0.5263062500000001</v>
+        <v>1.295745330635332</v>
       </c>
       <c r="L11">
-        <v>1.248153125</v>
+        <v>1.117958827719419</v>
       </c>
       <c r="M11">
-        <v>0.9026333333333336</v>
+        <v>1.015190771766303</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.5545899380736</v>
+        <v>0.9374496479028154</v>
       </c>
       <c r="D12">
-        <v>0.5397915715584015</v>
+        <v>1.893761146967791</v>
       </c>
       <c r="E12">
-        <v>0.9099897923583969</v>
+        <v>0.7015036444599082</v>
       </c>
       <c r="F12">
-        <v>1.5545899380736</v>
+        <v>0.9374496479028154</v>
       </c>
       <c r="G12">
-        <v>0.790208806297601</v>
+        <v>1.46821720311783</v>
       </c>
       <c r="H12">
-        <v>0.8104218732544011</v>
+        <v>0.3274990554223933</v>
       </c>
       <c r="I12">
-        <v>1.054980195840001</v>
+        <v>0.764229370257537</v>
       </c>
       <c r="J12">
-        <v>0.5397915715584015</v>
+        <v>1.893761146967791</v>
       </c>
       <c r="K12">
-        <v>0.7248906819583992</v>
+        <v>1.297632395713849</v>
       </c>
       <c r="L12">
-        <v>1.139740310016</v>
+        <v>1.117541021808333</v>
       </c>
       <c r="M12">
-        <v>0.943330362897067</v>
+        <v>1.015443344688046</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9954199582472592</v>
+        <v>0.9396232570599472</v>
       </c>
       <c r="D13">
-        <v>0.9933137835985733</v>
+        <v>1.890164067852492</v>
       </c>
       <c r="E13">
-        <v>0.9942538958394512</v>
+        <v>0.7018487639650598</v>
       </c>
       <c r="F13">
-        <v>0.9954199582472592</v>
+        <v>0.9396232570599472</v>
       </c>
       <c r="G13">
-        <v>0.9934133634755241</v>
+        <v>1.466471032416336</v>
       </c>
       <c r="H13">
-        <v>0.9936876058048703</v>
+        <v>0.3282244278643351</v>
       </c>
       <c r="I13">
-        <v>0.9956971022920688</v>
+        <v>0.7649764300113838</v>
       </c>
       <c r="J13">
-        <v>0.9933137835985733</v>
+        <v>1.890164067852492</v>
       </c>
       <c r="K13">
-        <v>0.9937838397190122</v>
+        <v>1.296006415908776</v>
       </c>
       <c r="L13">
-        <v>0.9946018989831358</v>
+        <v>1.117814836484361</v>
       </c>
       <c r="M13">
-        <v>0.9942976182096245</v>
+        <v>1.015217996528259</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9814080470948402</v>
+        <v>1.408632</v>
       </c>
       <c r="D14">
-        <v>1.02901070469991</v>
+        <v>1.190688000000001</v>
       </c>
       <c r="E14">
-        <v>0.9904784264816872</v>
+        <v>0.7513119999999998</v>
       </c>
       <c r="F14">
-        <v>0.9814080470948402</v>
+        <v>1.408632</v>
       </c>
       <c r="G14">
-        <v>1.005725158357515</v>
+        <v>1.1114</v>
       </c>
       <c r="H14">
-        <v>1.002644322090684</v>
+        <v>0.4694839999999998</v>
       </c>
       <c r="I14">
-        <v>0.9873744961291371</v>
+        <v>0.8944919999999995</v>
       </c>
       <c r="J14">
-        <v>1.02901070469991</v>
+        <v>1.190688000000001</v>
       </c>
       <c r="K14">
-        <v>1.009744565590798</v>
+        <v>0.9710000000000003</v>
       </c>
       <c r="L14">
-        <v>0.9955763063428194</v>
+        <v>1.189816</v>
       </c>
       <c r="M14">
-        <v>0.9994401924756288</v>
+        <v>0.9710013333333333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.976643070494326</v>
+        <v>1.97</v>
       </c>
       <c r="D15">
-        <v>1.069272647050894</v>
+        <v>0.21</v>
       </c>
       <c r="E15">
-        <v>0.9815719998120205</v>
+        <v>0.8426125000000002</v>
       </c>
       <c r="F15">
-        <v>0.976643070494326</v>
+        <v>1.97</v>
       </c>
       <c r="G15">
-        <v>1.029643045993584</v>
+        <v>0.64</v>
       </c>
       <c r="H15">
-        <v>0.9738047511993261</v>
+        <v>0.66</v>
       </c>
       <c r="I15">
-        <v>0.9786455506607077</v>
+        <v>1.093187500000002</v>
       </c>
       <c r="J15">
-        <v>1.069272647050894</v>
+        <v>0.21</v>
       </c>
       <c r="K15">
-        <v>1.025422323431457</v>
+        <v>0.5263062500000001</v>
       </c>
       <c r="L15">
-        <v>1.001032696962892</v>
+        <v>1.248153125</v>
       </c>
       <c r="M15">
-        <v>1.00159684420181</v>
+        <v>0.9026333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9834174039073463</v>
+        <v>1.5545899380736</v>
       </c>
       <c r="D16">
-        <v>0.9924703951312377</v>
+        <v>0.5397915715584015</v>
       </c>
       <c r="E16">
-        <v>1.026900555561042</v>
+        <v>0.9099897923583969</v>
       </c>
       <c r="F16">
-        <v>0.9834174039073463</v>
+        <v>1.5545899380736</v>
       </c>
       <c r="G16">
-        <v>0.9175800386854445</v>
+        <v>0.790208806297601</v>
       </c>
       <c r="H16">
-        <v>1.201031381252061</v>
+        <v>0.8104218732544011</v>
       </c>
       <c r="I16">
-        <v>1.007901537378366</v>
+        <v>1.054980195840001</v>
       </c>
       <c r="J16">
-        <v>0.9924703951312377</v>
+        <v>0.5397915715584015</v>
       </c>
       <c r="K16">
-        <v>1.00968547534614</v>
+        <v>0.7248906819583992</v>
       </c>
       <c r="L16">
-        <v>0.996551439626743</v>
+        <v>1.139740310016</v>
       </c>
       <c r="M16">
-        <v>1.021550218652583</v>
+        <v>0.943330362897067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9954199582472592</v>
+      </c>
+      <c r="D17">
+        <v>0.9933137835985731</v>
+      </c>
+      <c r="E17">
+        <v>0.9942538958394512</v>
+      </c>
+      <c r="F17">
+        <v>0.9954199582472592</v>
+      </c>
+      <c r="G17">
+        <v>0.9934133634755241</v>
+      </c>
+      <c r="H17">
+        <v>0.9936876058048703</v>
+      </c>
+      <c r="I17">
+        <v>0.9956971022920688</v>
+      </c>
+      <c r="J17">
+        <v>0.9933137835985731</v>
+      </c>
+      <c r="K17">
+        <v>0.9937838397190122</v>
+      </c>
+      <c r="L17">
+        <v>0.9946018989831356</v>
+      </c>
+      <c r="M17">
+        <v>0.9942976182096245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9814080470948402</v>
+      </c>
+      <c r="D18">
+        <v>1.02901070469991</v>
+      </c>
+      <c r="E18">
+        <v>0.9904784264816872</v>
+      </c>
+      <c r="F18">
+        <v>0.9814080470948402</v>
+      </c>
+      <c r="G18">
+        <v>1.005725158357515</v>
+      </c>
+      <c r="H18">
+        <v>1.002644322090684</v>
+      </c>
+      <c r="I18">
+        <v>0.9873744961291371</v>
+      </c>
+      <c r="J18">
+        <v>1.02901070469991</v>
+      </c>
+      <c r="K18">
+        <v>1.009744565590798</v>
+      </c>
+      <c r="L18">
+        <v>0.9955763063428194</v>
+      </c>
+      <c r="M18">
+        <v>0.9994401924756288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.976643070494326</v>
+      </c>
+      <c r="D19">
+        <v>1.069272647050894</v>
+      </c>
+      <c r="E19">
+        <v>0.9815719998120205</v>
+      </c>
+      <c r="F19">
+        <v>0.976643070494326</v>
+      </c>
+      <c r="G19">
+        <v>1.029643045993584</v>
+      </c>
+      <c r="H19">
+        <v>0.9738047511993261</v>
+      </c>
+      <c r="I19">
+        <v>0.9786455506607077</v>
+      </c>
+      <c r="J19">
+        <v>1.069272647050894</v>
+      </c>
+      <c r="K19">
+        <v>1.025422323431457</v>
+      </c>
+      <c r="L19">
+        <v>1.001032696962892</v>
+      </c>
+      <c r="M19">
+        <v>1.00159684420181</v>
       </c>
     </row>
   </sheetData>
